--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -444,201 +444,201 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -654,137 +654,137 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -794,7 +794,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -804,377 +804,377 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>83</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>63</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>95</v>
+        <v>50</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1184,67 +1184,67 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1254,397 +1254,397 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>20</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>18</v>
+        <v>95</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>90</v>
+        <v>64</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>90</v>
+        <v>36</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>45</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>190</v>
+        <v>25</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -1654,97 +1654,97 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -1754,7 +1754,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -1774,67 +1774,67 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>496</v>
+        <v>585</v>
       </c>
     </row>
     <row r="147">
@@ -2088,7 +2088,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1065</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="167">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>300</v>
+        <v>710</v>
       </c>
     </row>
     <row r="168">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>890</v>
+        <v>980</v>
       </c>
     </row>
     <row r="169">

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,177 +444,177 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -624,7 +624,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -634,197 +634,197 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -834,37 +834,37 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -874,107 +874,107 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -984,27 +984,27 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1014,47 +1014,47 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -1064,87 +1064,87 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>190</v>
+        <v>100</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1154,17 +1154,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1174,157 +1174,157 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1334,287 +1334,287 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>83</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>45</v>
+        <v>119</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1624,117 +1624,117 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>27</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1744,101 +1744,101 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142">
@@ -1894,270 +1894,310 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>I5_MS1 - Macrosección 1</t>
+          <t>FIS1514_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>84</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>I6_MS1 - Macrosección 1</t>
+          <t>FIS1523_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ICE1514_Coordinado - Macrosección</t>
+          <t>FIS1533_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ICH1104_Coordinado - Macrosección</t>
+          <t>I5_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>360</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ICM2503_Coordinado - Macrosección</t>
+          <t>I6_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ICS1113_Coordinado - Macrosección</t>
+          <t>ICE1514_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>520</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ICS1513_Coordinado - Macrosección</t>
+          <t>ICH1104_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ICS2523_1_2_Sec_Coordinadas - Macrosección</t>
+          <t>ICM2503_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>240</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ICS2613_Coordinado - Macrosección</t>
+          <t>ICS1113_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ICS3213_Coordinado - Macrosección</t>
+          <t>ICS1513_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ICS3313_2_3_Sec_Coordinadas - Macrosección</t>
+          <t>ICS2523_1_2_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ICS3413_2_3_Sec_Coordinadas - Macrosección</t>
+          <t>ICS2613_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IIC1103_Coordinado - Macrosección</t>
+          <t>ICS3213_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1280</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IIC1253_Coordinado - Macrosección</t>
+          <t>ICS3313_2_3_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IIC2343_Coordinado - Macrosección</t>
+          <t>ICS3413_2_3_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IIC3745_Coordinado - Macrosección</t>
+          <t>IIC1103_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>90</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IIQ1003_Coordinado - Macrosección</t>
+          <t>IIC1253_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>J7_MS1 - Macrosección 1</t>
+          <t>IIC2343_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MAT1203_Coordinado - Macrosección</t>
+          <t>IIC3745_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1015</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MAT1610_Coordinado - Macrosección</t>
+          <t>IIQ1003_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1727</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MAT1620_Coordinado - Macrosección</t>
+          <t>J7_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>710</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MAT1630_Coordinado - Macrosección</t>
+          <t>MAT1203_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>980</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MAT1640_Coordinado - Macrosección</t>
+          <t>MAT1610_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>920</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>R2_MS1 - Macrosección 1</t>
+          <t>MAT1620_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>75</v>
+        <v>710</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>R3_MS1 - Macrosección 1</t>
+          <t>MAT1630_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>W0_MS1 - Macrosección 1</t>
+          <t>MAT1640_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>55</v>
+        <v>920</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>QIM100E_Coordinado - Macrosección</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>R2_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R3_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>W0_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
           <t>Z8_MS1 - Macrosección 1</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B177" t="n">
         <v>90</v>
       </c>
     </row>

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -444,447 +444,447 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>120</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>44</v>
+        <v>140</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -894,117 +894,117 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>190</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>140</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>15</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1014,87 +1014,87 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1104,47 +1104,47 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1154,7 +1154,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1164,277 +1164,277 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>140</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>66</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>120</v>
+        <v>66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -1444,87 +1444,87 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>27</v>
+        <v>100</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1534,197 +1534,197 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>35</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1734,7 +1734,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -1744,101 +1744,101 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>198</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>80</v>
+        <v>198</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="142">

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -444,257 +444,257 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,127 +704,127 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>120</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -834,57 +834,57 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -894,57 +894,57 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>95</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -954,167 +954,167 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1124,707 +1124,707 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>46</v>
+        <v>140</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>120</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>66</v>
+        <v>36</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>140</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>40</v>
+        <v>62</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>198</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -1834,11 +1834,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="142">

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B177"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,127 +444,127 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -574,177 +574,177 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -754,457 +754,457 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>120</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>83</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>140</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>70</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1214,187 +1214,187 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>95</v>
+        <v>20</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>21</v>
+        <v>198</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1404,67 +1404,67 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -1474,47 +1474,47 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>75</v>
+        <v>62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -1524,27 +1524,27 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -1554,107 +1554,107 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -1664,181 +1664,181 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>62</v>
+        <v>25</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>40</v>
+        <v>119</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>80</v>
+        <v>40</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>66</v>
+        <v>20</v>
       </c>
     </row>
     <row r="142">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>620</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -2108,96 +2108,106 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>1015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MAT1610_Coordinado - Macrosección</t>
+          <t>MAT1207_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>1727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>MAT1620_Coordinado - Macrosección</t>
+          <t>MAT1610_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>710</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MAT1630_Coordinado - Macrosección</t>
+          <t>MAT1620_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>980</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MAT1640_Coordinado - Macrosección</t>
+          <t>MAT1630_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>920</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>QIM100E_Coordinado - Macrosección</t>
+          <t>MAT1640_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>R2_MS1 - Macrosección 1</t>
+          <t>QIM100E_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>R3_MS1 - Macrosección 1</t>
+          <t>R2_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>W0_MS1 - Macrosección 1</t>
+          <t>R3_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>W0_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
           <t>Z8_MS1 - Macrosección 1</t>
         </is>
       </c>
-      <c r="B177" t="n">
+      <c r="B178" t="n">
         <v>90</v>
       </c>
     </row>

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -444,67 +444,67 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -514,137 +514,137 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>140</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -654,227 +654,227 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>63</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>60</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>198</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -884,47 +884,47 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -934,147 +934,147 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -1084,277 +1084,277 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>190</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>80</v>
+        <v>27</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>60</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1364,267 +1364,267 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>60</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>119</v>
+        <v>45</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>95</v>
+        <v>60</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>20</v>
+        <v>120</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>140</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1634,211 +1634,211 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>40</v>
+        <v>64</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>30</v>
+        <v>66</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>30</v>
+        <v>95</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="142">

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -444,17 +444,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -464,227 +464,227 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -694,97 +694,97 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>22</v>
+        <v>140</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>63</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -794,57 +794,57 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>60</v>
+        <v>198</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>140</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -854,117 +854,117 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -974,17 +974,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -994,547 +994,547 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>140</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>50</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>64</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>60</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>70</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>190</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>198</v>
+        <v>62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>83</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>50</v>
+        <v>190</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>50</v>
+        <v>15</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>140</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1544,87 +1544,87 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>90</v>
+        <v>44</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>80</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>40</v>
+        <v>95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -1634,87 +1634,87 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>100</v>
+        <v>35</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>30</v>
+        <v>45</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>35</v>
+        <v>80</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -1724,7 +1724,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -1734,111 +1734,111 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>119</v>
+        <v>60</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="142">
@@ -1888,7 +1888,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
     </row>
     <row r="147">
@@ -1898,7 +1898,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>0</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148">
@@ -1908,7 +1908,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>0</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149">
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150">
@@ -2108,7 +2108,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="169">
@@ -2118,7 +2118,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170">
@@ -2128,7 +2128,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="171">
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>710</v>
       </c>
     </row>
     <row r="172">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>980</v>
       </c>
     </row>
     <row r="173">
@@ -2158,7 +2158,7 @@
         </is>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>920</v>
       </c>
     </row>
     <row r="174">
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="175">

--- a/Interrogaciones/src/instancia_datos/vacantes.xlsx
+++ b/Interrogaciones/src/instancia_datos/vacantes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,37 +444,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IIC2613-1</t>
+          <t>IMM1003-1</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>140</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ICH2124-1</t>
+          <t>IIC2733-1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ICC3124-1</t>
+          <t>IIC2143-2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICH2204-1</t>
+          <t>IIC3113-2</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -484,97 +484,97 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IMM2213-1</t>
+          <t>ICS2563-1</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IIC2333-1</t>
+          <t>ICH2304-1</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ICS3723-1</t>
+          <t>IIC2213-1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ICE3413-1</t>
+          <t>ICC2105-1</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ICC3253-1</t>
+          <t>IIQ3343-1</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ICM2203-1</t>
+          <t>IIC2713-1</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IMT3130-1</t>
+          <t>ICH3350-1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ICS2563-1</t>
+          <t>IIC3800-1</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICC3434-1</t>
+          <t>ICT3283-1</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IIC3757-1</t>
+          <t>ICS2523-4</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -584,37 +584,37 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IIC3103-1</t>
+          <t>ICM2803-1</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>100</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ICM2413-1</t>
+          <t>IIC3757-1</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IEE2463-1</t>
+          <t>ICM2333-1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ICC3543-1</t>
+          <t>ICE3513-1</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -624,77 +624,77 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ICM2003-1</t>
+          <t>IEE3234-1</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ICE2114-1</t>
+          <t>ICS3413-1</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>95</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ICH2114-1</t>
+          <t>IEE2113-1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ICM2223-1</t>
+          <t>ICM2313-1</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ICH3364-1</t>
+          <t>ICE2114-1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>20</v>
+        <v>95</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ICM2313-1</t>
+          <t>IMT2111-1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IIC3800-1</t>
+          <t>ICT3523-1</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ICE3233-1</t>
+          <t>ICM3243-1</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -704,207 +704,207 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ICE2313-1</t>
+          <t>IIC3743-1</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ICS3582-1</t>
+          <t>ICC1001-1</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ICC1001-1</t>
+          <t>IIQ2673-1</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IIC2713-2</t>
+          <t>ICT3435-1</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IIC1001-1</t>
+          <t>IMT3800-1</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IIC3113-2</t>
+          <t>IIC3143-1</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IIQ2303-1</t>
+          <t>ICH3532-1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ICS3151-1</t>
+          <t>ICT2233-1</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ICE3613-1</t>
+          <t>ICM2003-1</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IIC2133-2</t>
+          <t>IEE2413-1</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ICS2023-1</t>
+          <t>IMM2003-1</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IMM3313-1</t>
+          <t>ICE2703-1</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ICS3762-1</t>
+          <t>ICE3233-1</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IEE3373-1</t>
+          <t>ICS2123-3</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ICE3653-1</t>
+          <t>ICE3413-1</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IIC2733-1</t>
+          <t>ICE2313-1</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ICH2304-2</t>
+          <t>ICH3600-1</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ICM3243-1</t>
+          <t>IIQ2003-1</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ICS2523-3</t>
+          <t>IMM3323-1</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ICE3513-1</t>
+          <t>IMT3150-1</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IMM2003-1</t>
+          <t>ICT3623-1</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -914,507 +914,507 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IIC2764-1</t>
+          <t>ICE2604-1</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IEE2113-1</t>
+          <t>ICE2533-1</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ICE3443-1</t>
+          <t>ICE3753-1</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IIC3743-1</t>
+          <t>IIQ2663-1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IIQ2663-1</t>
+          <t>ICE2020-1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IEE2103-1</t>
+          <t>ICS3582-1</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ICM2028-1</t>
+          <t>IEE2613-1</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ICE2633-1</t>
+          <t>ICT2303-1</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>22</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IMM2043-1</t>
+          <t>ICC3214-1</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IEE3732-1</t>
+          <t>ICM2213-1</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IEE2613-1</t>
+          <t>IEE3732-1</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>60</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IMM2053-1</t>
+          <t>ICC3543-1</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ICC2514-1</t>
+          <t>IIC2133-2</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>36</v>
+        <v>140</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ICT2233-1</t>
+          <t>IIC3113-1</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ICE3124-1</t>
+          <t>ICE3663-1</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IIC2733-2</t>
+          <t>IMM3313-1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICE3663-1</t>
+          <t>ICE3613-1</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IIC3113-1</t>
+          <t>IIC2143-1</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>100</v>
+        <v>140</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ICC2105-1</t>
+          <t>ICM2028-1</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IMT3800-1</t>
+          <t>ICS2123-2</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IIQ2673-1</t>
+          <t>ICS3723-1</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IEE2213-1</t>
+          <t>ICM3762-1</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ICT3623-1</t>
+          <t>ICH3374-1</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IMM2033-1</t>
+          <t>IEE2463-1</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IIQ2133-1</t>
+          <t>IIC3242-1</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>80</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ICH3222-1</t>
+          <t>IMM2013-1</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ICM3251-1</t>
+          <t>ICE3653-1</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IEE2713-1</t>
+          <t>ICS2523-3</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IIQ3343-1</t>
+          <t>ICS3151-1</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IMM2013-1</t>
+          <t>IIC2764-1</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ICE2533-1</t>
+          <t>ICH2114-1</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ICT3464-1</t>
+          <t>ICM2403-1</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ICM3762-1</t>
+          <t>IIC2133-1</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IMM1003-1</t>
+          <t>ICH2574-1</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ICS3313-1</t>
+          <t>ICC3264-1</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ICT3523-1</t>
+          <t>ICS2023-1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ICE2703-1</t>
+          <t>ICE2006-1</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>83</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ICE2028-1</t>
+          <t>ICS2121-1</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>20</v>
+        <v>190</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ICT3435-1</t>
+          <t>IMM2053-1</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ICE3753-1</t>
+          <t>ICC3253-1</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ICT3283-1</t>
+          <t>IEE2713-1</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ICH3532-1</t>
+          <t>IMM2043-1</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>IMM3323-1</t>
+          <t>IIC2713-2</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ICS2123-1</t>
+          <t>IMM2033-1</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IMM3800-1</t>
+          <t>ICE2623-1</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ICH1005-1</t>
+          <t>ICH3364-1</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ICH3350-1</t>
+          <t>IEE2343-1</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>IIC3143-1</t>
+          <t>ICC2514-1</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>IIC3242-1</t>
+          <t>IMM3800-1</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>IIQ2003-1</t>
+          <t>IIC2333-1</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ICE2006-1</t>
+          <t>IIC2713-3</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -1424,77 +1424,77 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICH2214-1</t>
+          <t>ICH2304-2</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ICS2523-4</t>
+          <t>ICT3464-1</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>IEE2413-1</t>
+          <t>IEE3373-1</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>IIC2143-2</t>
+          <t>ICC2204-1</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>ICC3264-1</t>
+          <t>ICH2214-1</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>IMT2111-1</t>
+          <t>ICM3251-1</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IEE2123-1</t>
+          <t>ICS2563-2</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ICM2213-1</t>
+          <t>ICM2203-1</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -1504,27 +1504,27 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ICS3811-1</t>
+          <t>ICM1001-1</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ICE2623-1</t>
+          <t>ICH2204-1</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ICH3374-1</t>
+          <t>ICS3811-1</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -1534,27 +1534,27 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ICM3235-1</t>
+          <t>ICC2304-1</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>IEE2343-1</t>
+          <t>IIQ3643-1</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>ICM2022-1</t>
+          <t>ICM2223-1</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1564,57 +1564,57 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>IIC2213-1</t>
+          <t>IEE2513-1</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>IEE3234-1</t>
+          <t>ICM2022-1</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>IIC2713-3</t>
+          <t>ICH1005-1</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ICC2304-1</t>
+          <t>ICM2413-1</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>IMT3150-1</t>
+          <t>IIQ2043-1</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>35</v>
+        <v>100</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ICM1001-1</t>
+          <t>IEE2213-1</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1624,187 +1624,187 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ICH3600-1</t>
+          <t>ICM3235-1</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ICM2803-1</t>
+          <t>IEE2123-1</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ICH2574-1</t>
+          <t>ICE3124-1</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>IIC2143-1</t>
+          <t>IEE2103-1</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>140</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ICS2123-2</t>
+          <t>ICH3222-1</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ICC3214-1</t>
+          <t>ICS2123-1</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>62</v>
+        <v>120</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ICC2204-1</t>
+          <t>IIC3103-1</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ICM2333-1</t>
+          <t>IIQ2133-1</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IIC2133-1</t>
+          <t>ICE2028-1</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICE2020-1</t>
+          <t>IIC2733-2</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ICS2121-1</t>
+          <t>ICE2633-1</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>190</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ICS2563-2</t>
+          <t>ICE3443-1</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>70</v>
+        <v>25</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>IIC2713-1</t>
+          <t>IIC1001-1</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ICS3413-1</t>
+          <t>ICS3762-1</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>198</v>
+        <v>20</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ICH2304-1</t>
+          <t>IIQ2303-1</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ICM2403-1</t>
+          <t>IMM2213-1</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ICT2303-1</t>
+          <t>ICC3124-1</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>IEE2513-1</t>
+          <t>ICC3434-1</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ICS2123-3</t>
+          <t>ICH2124-1</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -1814,31 +1814,31 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>IIQ3643-1</t>
+          <t>IIC2613-1</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ICE2604-1</t>
+          <t>IMT3130-1</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>95</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IIQ2043-1</t>
+          <t>ICS3313-1</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="142">
@@ -1894,270 +1894,320 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>I5_MS1 - Macrosección 1</t>
+          <t>FIS1514_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>84</v>
+        <v>312</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>I6_MS1 - Macrosección 1</t>
+          <t>FIS1523_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ICE1514_Coordinado - Macrosección</t>
+          <t>FIS1533_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>120</v>
+        <v>370</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ICH1104_Coordinado - Macrosección</t>
+          <t>I5_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>360</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ICM2503_Coordinado - Macrosección</t>
+          <t>I6_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>81</v>
+        <v>50</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ICS1113_Coordinado - Macrosección</t>
+          <t>ICE1514_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>520</v>
+        <v>120</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ICS1513_Coordinado - Macrosección</t>
+          <t>ICH1104_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ICS2523_1_2_Sec_Coordinadas - Macrosección</t>
+          <t>ICM2503_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>240</v>
+        <v>81</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ICS2613_Coordinado - Macrosección</t>
+          <t>ICS1113_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>400</v>
+        <v>520</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ICS3213_Coordinado - Macrosección</t>
+          <t>ICS1513_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>350</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ICS3313_2_3_Sec_Coordinadas - Macrosección</t>
+          <t>ICS2523_1_2_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ICS3413_2_3_Sec_Coordinadas - Macrosección</t>
+          <t>ICS2613_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>140</v>
+        <v>400</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>IIC1103_Coordinado - Macrosección</t>
+          <t>ICS3213_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1280</v>
+        <v>350</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>IIC1253_Coordinado - Macrosección</t>
+          <t>ICS3313_2_3_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>420</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>IIC2343_Coordinado - Macrosección</t>
+          <t>ICS3413_2_3_Sec_Coordinadas - Macrosección</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>198</v>
+        <v>140</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>IIC3745_Coordinado - Macrosección</t>
+          <t>IIC1103_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>90</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>IIQ1003_Coordinado - Macrosección</t>
+          <t>IIC1253_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>120</v>
+        <v>420</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>J7_MS1 - Macrosección 1</t>
+          <t>IIC2343_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>30</v>
+        <v>198</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MAT1203_Coordinado - Macrosección</t>
+          <t>IIC3745_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1015</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MAT1610_Coordinado - Macrosección</t>
+          <t>IIQ1003_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1727</v>
+        <v>120</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MAT1620_Coordinado - Macrosección</t>
+          <t>J7_MS1 - Macrosección 1</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>710</v>
+        <v>30</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MAT1630_Coordinado - Macrosección</t>
+          <t>MAT1203_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>980</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MAT1640_Coordinado - Macrosección</t>
+          <t>MAT1207_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>920</v>
+        <v>252</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>R2_MS1 - Macrosección 1</t>
+          <t>MAT1610_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>75</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>R3_MS1 - Macrosección 1</t>
+          <t>MAT1620_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>60</v>
+        <v>710</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>W0_MS1 - Macrosección 1</t>
+          <t>MAT1630_Coordinado - Macrosección</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
+          <t>MAT1640_Coordinado - Macrosección</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>QIM100E_Coordinado - Macrosección</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>R2_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>R3_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>W0_MS1 - Macrosección 1</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
           <t>Z8_MS1 - Macrosección 1</t>
         </is>
       </c>
-      <c r="B173" t="n">
+      <c r="B178" t="n">
         <v>90</v>
       </c>
     </row>
